--- a/bzppr/lab2/Rlab/lab2.xlsx
+++ b/bzppr/lab2/Rlab/lab2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\deserof\Desktop\study\bzppr\lab2\Rlab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Artsiom_Kharkevich\Study\study\bzppr\lab2\Rlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4A1E5D-425C-4BAF-BEDC-329512670E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1F82F9-672D-4D68-9642-E18B5D206B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3884,7 +3884,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3900,9 +3900,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3940,7 +3940,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4046,7 +4046,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4198,8 +4198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H166" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
